--- a/arraytest.xlsx
+++ b/arraytest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,15 +531,20 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>ProbeResistance</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>ProbeSizeX</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>ProbeSizeY</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Resistance</t>
         </is>
@@ -552,13 +557,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05000000074505806</v>
+        <v>0.2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1232665628194809</v>
+        <v>0.1</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -567,10 +572,10 @@
         <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2465331278890601</v>
+        <v>0.4</v>
       </c>
       <c r="I2" t="n">
         <v>80</v>
@@ -582,16 +587,16 @@
         <v>0.3</v>
       </c>
       <c r="L2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -613,13 +618,16 @@
         <v>200</v>
       </c>
       <c r="U2" t="n">
-        <v>100</v>
+        <v>16.48104360915055</v>
       </c>
       <c r="V2" t="n">
         <v>100</v>
       </c>
       <c r="W2" t="n">
-        <v>45.45894826412508</v>
+        <v>100</v>
+      </c>
+      <c r="X2" t="n">
+        <v>24.5158971133143</v>
       </c>
     </row>
     <row r="3">
@@ -629,13 +637,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05000000074505806</v>
+        <v>0.2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1232665628194809</v>
+        <v>0.1</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -644,10 +652,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2465331278890601</v>
+        <v>0.4</v>
       </c>
       <c r="I3" t="n">
         <v>80</v>
@@ -659,16 +667,16 @@
         <v>0.3</v>
       </c>
       <c r="L3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -690,13 +698,16 @@
         <v>200</v>
       </c>
       <c r="U3" t="n">
-        <v>100</v>
+        <v>16.65604360915055</v>
       </c>
       <c r="V3" t="n">
         <v>100</v>
       </c>
       <c r="W3" t="n">
-        <v>45.1199476924291</v>
+        <v>100</v>
+      </c>
+      <c r="X3" t="n">
+        <v>24.34506135455355</v>
       </c>
     </row>
     <row r="4">
@@ -706,13 +717,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05000000074505806</v>
+        <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1232665628194809</v>
+        <v>0.1</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -721,10 +732,10 @@
         <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2465331278890601</v>
+        <v>0.4</v>
       </c>
       <c r="I4" t="n">
         <v>80</v>
@@ -736,16 +747,16 @@
         <v>0.3</v>
       </c>
       <c r="L4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -767,13 +778,16 @@
         <v>200</v>
       </c>
       <c r="U4" t="n">
-        <v>100</v>
+        <v>17.00604360915055</v>
       </c>
       <c r="V4" t="n">
         <v>100</v>
       </c>
       <c r="W4" t="n">
-        <v>45.67323890811377</v>
+        <v>100</v>
+      </c>
+      <c r="X4" t="n">
+        <v>24.52214339191148</v>
       </c>
     </row>
     <row r="5">
@@ -783,13 +797,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05000000074505806</v>
+        <v>0.2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1232665628194809</v>
+        <v>0.1</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -798,10 +812,10 @@
         <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2465331278890601</v>
+        <v>0.4</v>
       </c>
       <c r="I5" t="n">
         <v>80</v>
@@ -813,16 +827,16 @@
         <v>0.5</v>
       </c>
       <c r="L5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -844,13 +858,16 @@
         <v>200</v>
       </c>
       <c r="U5" t="n">
-        <v>100</v>
+        <v>16.48104360915055</v>
       </c>
       <c r="V5" t="n">
         <v>100</v>
       </c>
       <c r="W5" t="n">
-        <v>45.2804296438813</v>
+        <v>100</v>
+      </c>
+      <c r="X5" t="n">
+        <v>23.79181770050723</v>
       </c>
     </row>
     <row r="6">
@@ -860,13 +877,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05000000074505806</v>
+        <v>0.2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1232665628194809</v>
+        <v>0.1</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -875,10 +892,10 @@
         <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2465331278890601</v>
+        <v>0.4</v>
       </c>
       <c r="I6" t="n">
         <v>80</v>
@@ -890,16 +907,16 @@
         <v>0.5</v>
       </c>
       <c r="L6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M6" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -921,13 +938,16 @@
         <v>200</v>
       </c>
       <c r="U6" t="n">
-        <v>100</v>
+        <v>16.65604360915055</v>
       </c>
       <c r="V6" t="n">
         <v>100</v>
       </c>
       <c r="W6" t="n">
-        <v>44.93809578971462</v>
+        <v>100</v>
+      </c>
+      <c r="X6" t="n">
+        <v>23.61264802759433</v>
       </c>
     </row>
     <row r="7">
@@ -937,13 +957,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05000000074505806</v>
+        <v>0.2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1232665628194809</v>
+        <v>0.1</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -952,10 +972,10 @@
         <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2465331278890601</v>
+        <v>0.4</v>
       </c>
       <c r="I7" t="n">
         <v>80</v>
@@ -967,16 +987,16 @@
         <v>0.5</v>
       </c>
       <c r="L7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -998,13 +1018,16 @@
         <v>200</v>
       </c>
       <c r="U7" t="n">
-        <v>100</v>
+        <v>17.00604360915055</v>
       </c>
       <c r="V7" t="n">
         <v>100</v>
       </c>
       <c r="W7" t="n">
-        <v>45.49027591124239</v>
+        <v>100</v>
+      </c>
+      <c r="X7" t="n">
+        <v>23.78556307360797</v>
       </c>
     </row>
     <row r="8">
@@ -1014,13 +1037,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05000000074505806</v>
+        <v>0.2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1232665628194809</v>
+        <v>0.1</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -1029,10 +1052,10 @@
         <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2465331278890601</v>
+        <v>0.4</v>
       </c>
       <c r="I8" t="n">
         <v>80</v>
@@ -1044,16 +1067,16 @@
         <v>0.7</v>
       </c>
       <c r="L8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -1075,13 +1098,16 @@
         <v>200</v>
       </c>
       <c r="U8" t="n">
-        <v>100</v>
+        <v>16.48104360915055</v>
       </c>
       <c r="V8" t="n">
         <v>100</v>
       </c>
       <c r="W8" t="n">
-        <v>45.20773112945762</v>
+        <v>100</v>
+      </c>
+      <c r="X8" t="n">
+        <v>23.49102150001363</v>
       </c>
     </row>
     <row r="9">
@@ -1091,13 +1117,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05000000074505806</v>
+        <v>0.2</v>
       </c>
       <c r="C9" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1232665628194809</v>
+        <v>0.1</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -1106,10 +1132,10 @@
         <v>30</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2465331278890601</v>
+        <v>0.4</v>
       </c>
       <c r="I9" t="n">
         <v>80</v>
@@ -1121,16 +1147,16 @@
         <v>0.7</v>
       </c>
       <c r="L9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M9" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1152,13 +1178,16 @@
         <v>200</v>
       </c>
       <c r="U9" t="n">
-        <v>100</v>
+        <v>16.65604360915055</v>
       </c>
       <c r="V9" t="n">
         <v>100</v>
       </c>
       <c r="W9" t="n">
-        <v>44.86206399282024</v>
+        <v>100</v>
+      </c>
+      <c r="X9" t="n">
+        <v>23.30351815034175</v>
       </c>
     </row>
     <row r="10">
@@ -1168,13 +1197,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05000000074505806</v>
+        <v>0.2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1232665628194809</v>
+        <v>0.1</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1183,10 +1212,10 @@
         <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2465331278890601</v>
+        <v>0.4</v>
       </c>
       <c r="I10" t="n">
         <v>80</v>
@@ -1198,16 +1227,16 @@
         <v>0.7</v>
       </c>
       <c r="L10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M10" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1229,13 +1258,16 @@
         <v>200</v>
       </c>
       <c r="U10" t="n">
-        <v>100</v>
+        <v>17.00604360915055</v>
       </c>
       <c r="V10" t="n">
         <v>100</v>
       </c>
       <c r="W10" t="n">
-        <v>45.41313302019112</v>
+        <v>100</v>
+      </c>
+      <c r="X10" t="n">
+        <v>23.47226633465548</v>
       </c>
     </row>
   </sheetData>
